--- a/common/src/main/webapp/imports/export-吴双-76.xlsx
+++ b/common/src/main/webapp/imports/export-吴双-76.xlsx
@@ -2259,10 +2259,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2278,22 +2278,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2306,17 +2319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2325,13 +2329,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2352,8 +2349,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2361,7 +2366,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2376,14 +2381,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2391,15 +2389,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2413,16 +2412,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2437,19 +2437,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2467,37 +2539,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2515,13 +2605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2533,91 +2617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2634,8 +2634,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2666,17 +2666,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2684,8 +2678,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2705,15 +2699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2728,151 +2713,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3244,7 +3244,7 @@
   <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="E4" sqref="A1:M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
@@ -3278,29 +3278,30 @@
     <col min="30" max="30" width="37" style="1" customWidth="1"/>
     <col min="31" max="31" width="100.666666666667" style="1" customWidth="1"/>
     <col min="32" max="16383" width="8.88333333333333" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="0" style="1"/>
+    <col min="16384" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:31">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>691</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="H1" s="2" t="str">
         <f>G1</f>
         <v>上海市青浦区外青松公路5045号508室Y区36号</v>
       </c>
@@ -3313,10 +3314,10 @@
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="2"/>
@@ -3352,25 +3353,26 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:31">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>176</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="2" t="str">
         <f t="shared" ref="H2:H64" si="0">G2</f>
         <v>沈阳市沈北新区辉山经济开发区新阳路23号</v>
       </c>
@@ -3383,10 +3385,10 @@
       <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -3421,25 +3423,26 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:31">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>689</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市浑南新区新隆街2号</v>
       </c>
@@ -3452,10 +3455,10 @@
       <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3490,25 +3493,26 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:31">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>713</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>北京市平谷区平谷镇府前街31号（招商局院内）</v>
       </c>
@@ -3521,10 +3525,10 @@
       <c r="K4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -3559,25 +3563,26 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:31">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>698</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>吉林省长春市九台市经济开发区卡伦北区华信路636号（清新伟业院内）</v>
       </c>
@@ -3590,10 +3595,10 @@
       <c r="K5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -3628,22 +3633,24 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:31">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>693</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区道义南大街28号1门</v>
       </c>
@@ -3656,10 +3663,10 @@
       <c r="K6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -3694,22 +3701,24 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:31">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>701</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>上海市崇明县城桥镇东河沿68号5号楼219室（上海城桥经济开发区）</v>
       </c>
@@ -3722,10 +3731,10 @@
       <c r="K7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -3760,25 +3769,26 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:31">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>210</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区裕农路38-23号</v>
       </c>
@@ -3791,10 +3801,10 @@
       <c r="K8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -3829,25 +3839,26 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:31">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>183</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区辉山大街127号</v>
       </c>
@@ -3860,10 +3871,10 @@
       <c r="K9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -3898,25 +3909,26 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:31">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>174</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区佳阳路18号</v>
       </c>
@@ -3929,10 +3941,10 @@
       <c r="K10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -3967,22 +3979,24 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:31">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>697</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区沈北路76-33号</v>
       </c>
@@ -3995,10 +4009,10 @@
       <c r="K11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -4033,25 +4047,26 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:31">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>686</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市虎石台经济技术开发区建设南三东路22号</v>
       </c>
@@ -4064,10 +4079,10 @@
       <c r="K12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -4102,25 +4117,26 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:31">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>704</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区常州路40号甲-1</v>
       </c>
@@ -4133,10 +4149,10 @@
       <c r="K13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -4171,25 +4187,26 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:31">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>202</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳辉山农业高新技术开发区新阳路19-2号</v>
       </c>
@@ -4202,10 +4219,10 @@
       <c r="K14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -4240,25 +4257,26 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:31">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>205</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区沈北路162-1号</v>
       </c>
@@ -4271,10 +4289,10 @@
       <c r="K15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -4309,25 +4327,26 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:31">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>189</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="1" t="str">
+      <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街123-8号</v>
       </c>
@@ -4340,10 +4359,10 @@
       <c r="K16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -4378,25 +4397,26 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:31">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>707</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区正坤路4号</v>
       </c>
@@ -4409,10 +4429,10 @@
       <c r="K17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -4447,25 +4467,26 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:31">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>711</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H18" s="1" t="str">
+      <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区新阳路27号</v>
       </c>
@@ -4478,10 +4499,10 @@
       <c r="K18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -4516,25 +4537,26 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:31">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>203</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="1" t="str">
+      <c r="H19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区竞业街12号</v>
       </c>
@@ -4547,10 +4569,10 @@
       <c r="K19" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -4585,25 +4607,26 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:31">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>199</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H20" s="1" t="str">
+      <c r="H20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区宏业街22号</v>
       </c>
@@ -4616,10 +4639,10 @@
       <c r="K20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -4654,25 +4677,26 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:31">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>694</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H21" s="1" t="str">
+      <c r="H21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市和平区北四经街18号</v>
       </c>
@@ -4685,10 +4709,10 @@
       <c r="K21" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -4723,25 +4747,26 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:31">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>186</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H22" s="1" t="str">
+      <c r="H22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区辉山大街132号</v>
       </c>
@@ -4754,10 +4779,10 @@
       <c r="K22" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -4792,25 +4817,26 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:31">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>709</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="1" t="str">
+      <c r="H23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市新城子区黄家乡黄家村</v>
       </c>
@@ -4823,10 +4849,10 @@
       <c r="K23" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -4861,25 +4887,26 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:31">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>179</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H24" s="1" t="str">
+      <c r="H24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区兴农路25-1号</v>
       </c>
@@ -4892,10 +4919,10 @@
       <c r="K24" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -4930,25 +4957,26 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:31">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>692</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H25" s="1" t="str">
+      <c r="H25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区沈北路186号</v>
       </c>
@@ -4961,10 +4989,10 @@
       <c r="K25" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -4999,25 +5027,26 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:31">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>193</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H26" s="1" t="str">
+      <c r="H26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街133号</v>
       </c>
@@ -5030,10 +5059,10 @@
       <c r="K26" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -5068,25 +5097,26 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:31">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>685</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H27" s="1" t="str">
+      <c r="H27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街123号</v>
       </c>
@@ -5099,10 +5129,10 @@
       <c r="K27" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -5137,25 +5167,26 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:31">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>195</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H28" s="1" t="str">
+      <c r="H28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山街道蒲河社区</v>
       </c>
@@ -5168,10 +5199,10 @@
       <c r="K28" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -5206,25 +5237,26 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:31">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>198</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区兴农路32号</v>
       </c>
@@ -5237,10 +5269,10 @@
       <c r="K29" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -5275,25 +5307,26 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:31">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>181</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="H30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区宏业街2-3号</v>
       </c>
@@ -5306,10 +5339,10 @@
       <c r="K30" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="1" t="s">
@@ -5344,25 +5377,26 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>191</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="H31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区宏业街30号</v>
       </c>
@@ -5375,10 +5409,10 @@
       <c r="K31" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O31" s="1" t="s">
@@ -5413,25 +5447,26 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:31">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>197</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="H32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区兴农路56-1号</v>
       </c>
@@ -5444,10 +5479,10 @@
       <c r="K32" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="1" t="s">
@@ -5482,25 +5517,26 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:31">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>180</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街135-2号</v>
       </c>
@@ -5513,10 +5549,10 @@
       <c r="K33" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -5551,25 +5587,26 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:31">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>184</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区乐业街104号</v>
       </c>
@@ -5582,10 +5619,10 @@
       <c r="K34" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -5620,25 +5657,26 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:31">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>680</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H35" s="1" t="str">
+      <c r="H35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区畅阳路12-4号</v>
       </c>
@@ -5651,10 +5689,10 @@
       <c r="K35" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="1" t="s">
@@ -5689,25 +5727,26 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:31">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>681</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="H36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区道义经济开发区京沈西三街29－4号</v>
       </c>
@@ -5720,10 +5759,10 @@
       <c r="K36" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O36" s="1" t="s">
@@ -5758,25 +5797,26 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:31">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>710</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="H37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区道义北大街57-1号</v>
       </c>
@@ -5789,10 +5829,10 @@
       <c r="K37" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O37" s="1" t="s">
@@ -5827,25 +5867,26 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:31">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>188</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>375</v>
       </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H38" s="1" t="str">
+      <c r="H38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区兴农路41号</v>
       </c>
@@ -5858,10 +5899,10 @@
       <c r="K38" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O38" s="1" t="s">
@@ -5896,25 +5937,26 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:31">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>185</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="H39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区辉山大街129号</v>
       </c>
@@ -5927,10 +5969,10 @@
       <c r="K39" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O39" s="1" t="s">
@@ -5965,25 +6007,26 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:31">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>206</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H40" s="1" t="str">
+      <c r="H40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区裕农路58号</v>
       </c>
@@ -5996,10 +6039,10 @@
       <c r="K40" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O40" s="1" t="s">
@@ -6034,25 +6077,26 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:31">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>712</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>405</v>
       </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H41" s="1" t="str">
+      <c r="H41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区蒲河大道888号西十二区五号楼</v>
       </c>
@@ -6065,10 +6109,10 @@
       <c r="K41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="1" t="s">
@@ -6103,25 +6147,26 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:31">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>213</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H42" s="1" t="str">
+      <c r="H42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区辉山大街151号</v>
       </c>
@@ -6134,10 +6179,10 @@
       <c r="K42" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O42" s="1" t="s">
@@ -6172,25 +6217,26 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:31">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>214</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="H43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街157号</v>
       </c>
@@ -6203,10 +6249,10 @@
       <c r="K43" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O43" s="1" t="s">
@@ -6241,25 +6287,26 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:31">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>696</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>429</v>
       </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H44" s="1" t="str">
+      <c r="H44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区正良五路32号</v>
       </c>
@@ -6272,10 +6319,10 @@
       <c r="K44" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O44" s="1" t="s">
@@ -6310,25 +6357,26 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:31">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>211</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="H45" s="1" t="str">
+      <c r="H45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>辽宁省沈阳市沈北新区人和街88号</v>
       </c>
@@ -6341,10 +6389,10 @@
       <c r="K45" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -6379,25 +6427,26 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:31">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>207</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>448</v>
       </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H46" s="1" t="str">
+      <c r="H46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区辉山大街123-16号</v>
       </c>
@@ -6410,10 +6459,10 @@
       <c r="K46" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O46" s="1" t="s">
@@ -6448,25 +6497,26 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:31">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>682</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="H47" s="1" t="str">
+      <c r="H47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区兴隆台街道救兵台村</v>
       </c>
@@ -6479,10 +6529,10 @@
       <c r="K47" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O47" s="1" t="s">
@@ -6517,25 +6567,26 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:31">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>177</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>468</v>
       </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="H48" s="1" t="str">
+      <c r="H48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区蒲河街道实园街18号</v>
       </c>
@@ -6548,10 +6599,10 @@
       <c r="K48" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -6586,25 +6637,26 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:31">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>182</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="H49" s="1" t="str">
+      <c r="H49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街121号</v>
       </c>
@@ -6617,10 +6669,10 @@
       <c r="K49" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O49" s="1" t="s">
@@ -6655,25 +6707,26 @@
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:31">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>172</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>488</v>
       </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="H50" s="1" t="str">
+      <c r="H50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区辉山大街150号</v>
       </c>
@@ -6686,10 +6739,10 @@
       <c r="K50" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O50" s="1" t="s">
@@ -6724,25 +6777,26 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:31">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>690</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="H51" s="1" t="str">
+      <c r="H51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区尹家乡尹家村</v>
       </c>
@@ -6755,10 +6809,10 @@
       <c r="K51" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O51" s="1" t="s">
@@ -6793,25 +6847,26 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:31">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>200</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="H52" s="1" t="str">
+      <c r="H52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区夏花湖街1号</v>
       </c>
@@ -6824,10 +6879,10 @@
       <c r="K52" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O52" s="1" t="s">
@@ -6862,25 +6917,26 @@
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:31">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>687</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>516</v>
       </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="H53" s="1" t="str">
+      <c r="H53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区天乾湖街25-11号</v>
       </c>
@@ -6893,10 +6949,10 @@
       <c r="K53" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O53" s="1" t="s">
@@ -6931,25 +6987,26 @@
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:31">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>215</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>526</v>
       </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="H54" s="1" t="str">
+      <c r="H54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区乐业街89-1、2、3号</v>
       </c>
@@ -6962,10 +7019,10 @@
       <c r="K54" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O54" s="1" t="s">
@@ -7000,25 +7057,26 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:31">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>173</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H55" s="1" t="str">
+      <c r="H55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区耀阳路18-8号</v>
       </c>
@@ -7031,10 +7089,10 @@
       <c r="K55" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O55" s="1" t="s">
@@ -7069,25 +7127,26 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:31">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>190</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="H56" s="1" t="str">
+      <c r="H56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街97号</v>
       </c>
@@ -7100,10 +7159,10 @@
       <c r="K56" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O56" s="1" t="s">
@@ -7138,25 +7197,26 @@
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:31">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>683</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>554</v>
       </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H57" s="1" t="str">
+      <c r="H57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区沈北路76-2号</v>
       </c>
@@ -7169,10 +7229,10 @@
       <c r="K57" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O57" s="1" t="s">
@@ -7207,25 +7267,26 @@
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:31">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>192</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="H58" s="1" t="str">
+      <c r="H58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区富阳路5号</v>
       </c>
@@ -7238,10 +7299,10 @@
       <c r="K58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O58" s="1" t="s">
@@ -7276,25 +7337,26 @@
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:31">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>700</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>571</v>
       </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H59" s="1" t="str">
+      <c r="H59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>浙江省东阳市振兴路1号</v>
       </c>
@@ -7307,10 +7369,10 @@
       <c r="K59" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O59" s="1" t="s">
@@ -7345,25 +7407,26 @@
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:31">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>695</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>583</v>
       </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H60" s="1" t="str">
+      <c r="H60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区正良五路32号</v>
       </c>
@@ -7376,10 +7439,10 @@
       <c r="K60" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O60" s="1" t="s">
@@ -7414,25 +7477,26 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:31">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>705</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>592</v>
       </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="H61" s="1" t="str">
+      <c r="H61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区马刚乡柳条河村</v>
       </c>
@@ -7445,10 +7509,10 @@
       <c r="K61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O61" s="1" t="s">
@@ -7483,25 +7547,26 @@
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:31">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>684</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="H62" s="1" t="str">
+      <c r="H62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区虎石台镇建设北一路38号</v>
       </c>
@@ -7514,10 +7579,10 @@
       <c r="K62" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O62" s="1" t="s">
@@ -7552,25 +7617,26 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:31">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>187</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="H63" s="1" t="str">
+      <c r="H63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街162号</v>
       </c>
@@ -7583,10 +7649,10 @@
       <c r="K63" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O63" s="1" t="s">
@@ -7621,25 +7687,26 @@
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:31">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>204</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>619</v>
       </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="H64" s="1" t="str">
+      <c r="H64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>沈阳辉山农业高新技术开发区宏业街73号</v>
       </c>
@@ -7652,10 +7719,10 @@
       <c r="K64" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O64" s="1" t="s">
@@ -7690,25 +7757,26 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:31">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>208</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>630</v>
       </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="H65" s="1" t="str">
+      <c r="H65" s="2" t="str">
         <f t="shared" ref="H65:H76" si="1">G65</f>
         <v>沈阳市沈北新区宏业街16号</v>
       </c>
@@ -7721,10 +7789,10 @@
       <c r="K65" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O65" s="1" t="s">
@@ -7759,25 +7827,26 @@
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:31">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>212</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>640</v>
       </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="H66" s="1" t="str">
+      <c r="H66" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈北新区沈北路158号</v>
       </c>
@@ -7790,10 +7859,10 @@
       <c r="K66" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O66" s="1" t="s">
@@ -7828,25 +7897,26 @@
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:31">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>201</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>649</v>
       </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="H67" s="1" t="str">
+      <c r="H67" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈北新区沈北路182号</v>
       </c>
@@ -7859,10 +7929,10 @@
       <c r="K67" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O67" s="1" t="s">
@@ -7897,25 +7967,26 @@
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:31">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>209</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="H68" s="1" t="str">
+      <c r="H68" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈北新区兴农路58-15号</v>
       </c>
@@ -7928,10 +7999,10 @@
       <c r="K68" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O68" s="1" t="s">
@@ -7966,25 +8037,26 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:31">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>703</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>667</v>
       </c>
+      <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="H69" s="1" t="str">
+      <c r="H69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈河区青年大街118号</v>
       </c>
@@ -7997,10 +8069,10 @@
       <c r="K69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O69" s="1" t="s">
@@ -8035,25 +8107,26 @@
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:31">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>196</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>675</v>
       </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="H70" s="1" t="str">
+      <c r="H70" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈北新区辉山经济开发区沈北路176号</v>
       </c>
@@ -8066,10 +8139,10 @@
       <c r="K70" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O70" s="1" t="s">
@@ -8104,25 +8177,26 @@
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:31">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>699</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>685</v>
       </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="H71" s="1" t="str">
+      <c r="H71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈北新区虎石台经济开发区虎石台南大街75-1号</v>
       </c>
@@ -8135,10 +8209,10 @@
       <c r="K71" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O71" s="1" t="s">
@@ -8173,25 +8247,26 @@
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:31">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>175</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>695</v>
       </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="H72" s="1" t="str">
+      <c r="H72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>辽宁省沈阳市沈北新区通利街1号</v>
       </c>
@@ -8204,10 +8279,10 @@
       <c r="K72" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O72" s="1" t="s">
@@ -8242,25 +8317,26 @@
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:31">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>688</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="H73" s="1" t="str">
+      <c r="H73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈北新区天王街32号</v>
       </c>
@@ -8273,10 +8349,10 @@
       <c r="K73" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O73" s="1" t="s">
@@ -8311,25 +8387,26 @@
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:31">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>178</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>714</v>
       </c>
+      <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="H74" s="1" t="str">
+      <c r="H74" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈北新区辉山大街101号</v>
       </c>
@@ -8342,10 +8419,10 @@
       <c r="K74" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O74" s="1" t="s">
@@ -8380,25 +8457,26 @@
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:31">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>708</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="H75" s="1" t="str">
+      <c r="H75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈河区南顺城路50号</v>
       </c>
@@ -8411,10 +8489,10 @@
       <c r="K75" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O75" s="1" t="s">
@@ -8449,22 +8527,24 @@
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:31">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>194</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>732</v>
       </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="H76" s="1" t="str">
+      <c r="H76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>沈阳市沈北新区沈北路168号</v>
       </c>
@@ -8477,10 +8557,10 @@
       <c r="K76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O76" s="1" t="s">
